--- a/biology/Médecine/Edward_Hooper/Edward_Hooper.xlsx
+++ b/biology/Médecine/Edward_Hooper/Edward_Hooper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Hooper (né en 1951) est un journaliste britannique. Il a passé une grande partie de sa vie en Afrique où il a exercé différents métiers. Il y fut notamment correspondant de la BBC.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est principalement cité pour son livre The river : a journey to the source of HIV and AIDS, un ouvrage controversé qui fait suite à dix-sept années d'enquête et qui lie l'apparition du sida à des campagnes de vaccination contre la poliomyélite dans le Congo belge. Cette thèse est connue sous le nom de (en) The oral polio vaccine (OPV) AIDS hypothesis.
-Une étude parue dans Nature en 2004 avance des arguments pour réfuter cette hypothèse[1]. Edward Hooper a par ailleurs répondu aux accusations de Nature dès 2004. Il s'étonne qu'on dénote aujourd'hui une telle différence entre ces deux espèces de chimpanzés, alors que dans un article publié récemment par Nature, un scientifique évoquait la possibilité de ne parler que d'une seule et même espèce, tant les similitudes étaient grandes[réf. nécessaire].
-Dans un second article publié la même année il s'insurge contre les intérêts personnels qui n'hésitent pas à falsifier et miner toute recherche de vérité dans ce domaine[2] ,[3].
-La théorie du vaccin contre la poliomyélite comme origine du sida n'est pas reconnue par la communauté scientifique, Edward C. Holmes indiquant dans un article paru en novembre 2007 que cette théorie était « rangée sur les étagères de la science fiction »[4]. En 2001, La Recherche, qui ne dénigre pas la qualité du travail de Hooper, affirmait aussi que ses thèses avaient été réfutées à la suite d'une expertise approfondie (dont l'analyse PCR de lots d'échantillons de vaccins utilisés à l'époque, ce qui a permis de montrer que l'ADN cellulaire des préparations vaccinales provenait bien de cellules de macaques et non de chimpanzés comme l'avait écrit Hooper) [5].
+Une étude parue dans Nature en 2004 avance des arguments pour réfuter cette hypothèse. Edward Hooper a par ailleurs répondu aux accusations de Nature dès 2004. Il s'étonne qu'on dénote aujourd'hui une telle différence entre ces deux espèces de chimpanzés, alors que dans un article publié récemment par Nature, un scientifique évoquait la possibilité de ne parler que d'une seule et même espèce, tant les similitudes étaient grandes[réf. nécessaire].
+Dans un second article publié la même année il s'insurge contre les intérêts personnels qui n'hésitent pas à falsifier et miner toute recherche de vérité dans ce domaine ,.
+La théorie du vaccin contre la poliomyélite comme origine du sida n'est pas reconnue par la communauté scientifique, Edward C. Holmes indiquant dans un article paru en novembre 2007 que cette théorie était « rangée sur les étagères de la science fiction ». En 2001, La Recherche, qui ne dénigre pas la qualité du travail de Hooper, affirmait aussi que ses thèses avaient été réfutées à la suite d'une expertise approfondie (dont l'analyse PCR de lots d'échantillons de vaccins utilisés à l'époque, ce qui a permis de montrer que l'ADN cellulaire des préparations vaccinales provenait bien de cellules de macaques et non de chimpanzés comme l'avait écrit Hooper) .
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Slim: One Man's Journey Through the Aids Zone of East Africa.", 1990
 The River, A Journey to the Source of HIV and AIDS, d'Edward Hooper,  (ISBN 0-316-37261-7)  (ISBN 0-7139-9335-9)  (ISBN 0-920674-23-2)  (ISBN 0-14-028377-3)  (ISBN 0-316-37137-8)</t>
@@ -576,7 +592,9 @@
           <t>Documentaire télévisé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les origines du SIDA sur IMDb, sur Dailymotion, sur Youtube</t>
         </is>
